--- a/src/assets/Target_Template-Instruction.xlsx
+++ b/src/assets/Target_Template-Instruction.xlsx
@@ -3,19 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27990" windowHeight="12450"/>
+    <workbookView windowWidth="20490" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TargetTemplete" sheetId="2" r:id="rId1"/>
-    <sheet name="Target_templete-Instruction" sheetId="1" r:id="rId2"/>
+    <sheet name="Target_templete" sheetId="1" r:id="rId1"/>
+    <sheet name="target_templete_instruction" sheetId="3" r:id="rId2"/>
+    <sheet name="FinancialYears" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="FinancialYears">FinancialYears!$A$1:$A$20</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Sl No</t>
   </si>
@@ -83,24 +88,25 @@
     <t>5000</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Date when the target was set (YYYY-MM-DD format)</t>
-  </si>
-  <si>
-    <t>"2024-03-01"</t>
-  </si>
-  <si>
     <t>String (Dropdown)</t>
   </si>
   <si>
-    <t>Type of target being set</t>
+    <t>Type of target being set (Annual , Batch)</t>
   </si>
   <si>
     <t>"Annual"</t>
   </si>
   <si>
+    <t>Date / Year</t>
+  </si>
+  <si>
+    <t>If Annual, enter the financial year (e.g., 2024-2025)
+If Batch, enter the specific date in dd-mm-yyyy format.</t>
+  </si>
+  <si>
+    <t>2024-2025 / "01-02-2023"</t>
+  </si>
+  <si>
     <t>INSTRUCTION</t>
   </si>
   <si>
@@ -253,7 +259,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4.</t>
+      <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
@@ -264,6 +270,81 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Target Type : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Target set for entire financial year (eg. 2024-2025) / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Batch-Based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : target assigned for a specific training batch with a fixed date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> Do not change the Excel template heading names.</t>
     </r>
     <r>
@@ -278,7 +359,67 @@
     </r>
   </si>
   <si>
-    <t>5. Make sure to delete the Instruction Sheet before uploading the data.</t>
+    <t>6. Make sure to delete the Instruction Sheet before uploading the data.</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>2011-2012</t>
+  </si>
+  <si>
+    <t>2012-2013</t>
+  </si>
+  <si>
+    <t>2013-2014</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
+  </si>
+  <si>
+    <t>2026-2027</t>
+  </si>
+  <si>
+    <t>2027-2028</t>
+  </si>
+  <si>
+    <t>2028-2029</t>
+  </si>
+  <si>
+    <t>2029-2030</t>
   </si>
 </sst>
 </file>
@@ -287,9 +428,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -320,6 +461,43 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,51 +510,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -385,12 +518,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -401,67 +587,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,187 +617,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,30 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -733,17 +850,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,171 +885,203 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,54 +1428,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.7533333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.2533333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.8333333333333" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="13.3" customWidth="1"/>
+    <col min="3" max="3" width="11.8333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.2" customWidth="1"/>
+    <col min="6" max="6" width="21.8333333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="5:5">
-      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>29221</formula1>
-      <formula2>54789</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>IF($B2="Annual",FinancialYears,"")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"Annual,Batch Based"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"Batch Based,Annual"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1343,170 +1481,294 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.4" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="29.4" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="16384" width="29.4" customWidth="1"/>
+    <col min="1" max="1" width="29.4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="29.4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>